--- a/rotmic/static/uploadexample_chemicalcomponent.xlsx
+++ b/rotmic/static/uploadexample_chemicalcomponent.xlsx
@@ -60,9 +60,6 @@
     <t>ordered</t>
   </si>
   <si>
-    <t>hypothetical</t>
-  </si>
-  <si>
     <t>Import of Oligonucleotides</t>
   </si>
   <si>
@@ -102,10 +99,13 @@
     <t>reagent / solvents</t>
   </si>
   <si>
-    <t>mtchem001</t>
-  </si>
-  <si>
-    <t>EtOH</t>
+    <t>mtchem0002</t>
+  </si>
+  <si>
+    <t>MetOH</t>
+  </si>
+  <si>
+    <t>Methanol p.a.</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -514,7 +514,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -536,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>4</v>
@@ -544,22 +544,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -567,7 +567,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="10"/>
     </row>
@@ -576,7 +576,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="10"/>
     </row>
@@ -585,7 +585,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -594,7 +594,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="10"/>
     </row>
@@ -603,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="10"/>
     </row>
@@ -612,7 +612,7 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="10"/>
     </row>
@@ -621,7 +621,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="10"/>
     </row>
@@ -630,7 +630,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -639,7 +639,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="10"/>
     </row>
@@ -648,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="10"/>
     </row>
@@ -657,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="10"/>
     </row>
@@ -666,7 +666,7 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="10"/>
     </row>
@@ -675,7 +675,7 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="10"/>
     </row>
@@ -684,7 +684,7 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="10"/>
     </row>
@@ -693,7 +693,7 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="10"/>
     </row>
@@ -702,7 +702,7 @@
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="10"/>
     </row>
@@ -711,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="10"/>
     </row>
@@ -720,7 +720,7 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="10"/>
     </row>
@@ -729,7 +729,7 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="10"/>
     </row>
@@ -738,7 +738,7 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="10"/>
     </row>
@@ -747,7 +747,7 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="10"/>
     </row>
@@ -756,7 +756,7 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" s="10"/>
     </row>
@@ -765,7 +765,7 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="10"/>
     </row>
@@ -774,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" s="10"/>
     </row>
@@ -783,7 +783,7 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="10"/>
     </row>
@@ -792,7 +792,7 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="10"/>
     </row>
@@ -801,7 +801,7 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="10"/>
     </row>
@@ -810,7 +810,7 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="10"/>
     </row>
@@ -819,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" s="10"/>
     </row>
@@ -828,7 +828,7 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E35" s="10"/>
     </row>
@@ -837,7 +837,7 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E36" s="10"/>
     </row>
@@ -846,7 +846,7 @@
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E37" s="10"/>
     </row>
@@ -855,7 +855,7 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E38" s="10"/>
     </row>
@@ -864,7 +864,7 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E39" s="10"/>
     </row>
@@ -873,7 +873,7 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E40" s="10"/>
     </row>
@@ -882,7 +882,7 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E41" s="10"/>
     </row>
@@ -891,7 +891,7 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E42" s="10"/>
     </row>
@@ -951,7 +951,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
         <v>10</v>
@@ -962,7 +962,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
         <v>10</v>
@@ -973,7 +973,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L7" t="s">
         <v>10</v>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L8" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
         <v>10</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L10" t="s">
         <v>10</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L11" t="s">
         <v>10</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L13" t="s">
         <v>10</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L14" t="s">
         <v>10</v>

--- a/rotmic/static/uploadexample_chemicalcomponent.xlsx
+++ b/rotmic/static/uploadexample_chemicalcomponent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="75" windowWidth="26265" windowHeight="15390"/>
+    <workbookView xWindow="45" yWindow="75" windowWidth="25440" windowHeight="15390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>ordered</t>
   </si>
   <si>
-    <t>Import of Oligonucleotides</t>
-  </si>
-  <si>
     <t>C.A.S.</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Methanol p.a.</t>
+  </si>
+  <si>
+    <t>Import of Chemicals &amp; Reagents</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -514,7 +514,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -536,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>4</v>
@@ -544,22 +544,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -567,7 +567,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="10"/>
     </row>
@@ -576,7 +576,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="10"/>
     </row>
@@ -585,7 +585,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -594,7 +594,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="10"/>
     </row>
@@ -603,7 +603,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="10"/>
     </row>
@@ -612,7 +612,7 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="10"/>
     </row>
@@ -621,7 +621,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="10"/>
     </row>
@@ -630,7 +630,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -639,7 +639,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="10"/>
     </row>
@@ -648,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="10"/>
     </row>
@@ -657,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="10"/>
     </row>
@@ -666,7 +666,7 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="10"/>
     </row>
@@ -675,7 +675,7 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="10"/>
     </row>
@@ -684,7 +684,7 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="10"/>
     </row>
@@ -693,7 +693,7 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="10"/>
     </row>
@@ -702,7 +702,7 @@
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="10"/>
     </row>
@@ -711,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="10"/>
     </row>
@@ -720,7 +720,7 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="10"/>
     </row>
@@ -729,7 +729,7 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" s="10"/>
     </row>
@@ -738,7 +738,7 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="10"/>
     </row>
@@ -747,7 +747,7 @@
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="10"/>
     </row>
@@ -756,7 +756,7 @@
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="10"/>
     </row>
@@ -765,7 +765,7 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="10"/>
     </row>
@@ -774,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" s="10"/>
     </row>
@@ -783,7 +783,7 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="10"/>
     </row>
@@ -792,7 +792,7 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="10"/>
     </row>
@@ -801,7 +801,7 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32" s="10"/>
     </row>
@@ -810,7 +810,7 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" s="10"/>
     </row>
@@ -819,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" s="10"/>
     </row>
@@ -828,7 +828,7 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35" s="10"/>
     </row>
@@ -837,7 +837,7 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E36" s="10"/>
     </row>
@@ -846,7 +846,7 @@
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E37" s="10"/>
     </row>
@@ -855,7 +855,7 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E38" s="10"/>
     </row>
@@ -864,7 +864,7 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E39" s="10"/>
     </row>
@@ -873,7 +873,7 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E40" s="10"/>
     </row>
@@ -882,7 +882,7 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E41" s="10"/>
     </row>
@@ -891,7 +891,7 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42" s="10"/>
     </row>
@@ -951,7 +951,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
         <v>10</v>
@@ -962,7 +962,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
         <v>10</v>
@@ -973,7 +973,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
         <v>10</v>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" t="s">
         <v>10</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
         <v>10</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L11" t="s">
         <v>10</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
         <v>10</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" t="s">
         <v>10</v>

--- a/rotmic/static/uploadexample_chemicalcomponent.xlsx
+++ b/rotmic/static/uploadexample_chemicalcomponent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="75" windowWidth="25440" windowHeight="15390"/>
+    <workbookView xWindow="2445" yWindow="3075" windowWidth="25440" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Clear the example data (except Status and Type columns) before inserting your own data.</t>
-  </si>
-  <si>
     <t>ordered</t>
   </si>
   <si>
@@ -106,13 +103,16 @@
   </si>
   <si>
     <t>Import of Chemicals &amp; Reagents</t>
+  </si>
+  <si>
+    <t>Projects</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +140,13 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -179,7 +186,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -201,6 +208,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -209,6 +217,120 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1819275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="10515600" cy="485776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Clear the example data (except Status and Type columns).</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Fields marked in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bold</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> are required. Rows without any value in the first column will be ignored.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Projects are referenced by their name, separated by comma (you can only refer to projects that are already registered on the server).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -496,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -508,404 +630,441 @@
     <col min="2" max="2" width="27.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="64.28515625" customWidth="1"/>
+    <col min="5" max="6" width="25.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="64.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="C6" t="s">
-        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="E6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="3:5">
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="3:6">
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="3:5">
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="3:6">
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="3:5">
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="3:6">
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="3:5">
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="3:6">
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="3:5">
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="3:6">
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="3:5">
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="3:6">
       <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="3:5">
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="3:6">
       <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="3:5">
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="3:6">
       <c r="C24" t="s">
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="3:5">
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="3:6">
       <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="3:5">
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="3:6">
       <c r="C26" t="s">
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="3:5">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="3:6">
       <c r="C27" t="s">
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="3:5">
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="3:6">
       <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="3:5">
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="3:6">
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="3:5">
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="3:6">
       <c r="C30" t="s">
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="3:5">
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="3:6">
       <c r="C31" t="s">
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="3:5">
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="3:6">
       <c r="C32" t="s">
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="3:5">
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="3:6">
       <c r="C33" t="s">
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="3:5">
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="3:6">
       <c r="C34" t="s">
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="3:5">
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="3:6">
       <c r="C35" t="s">
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="3:5">
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="3:6">
       <c r="C36" t="s">
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="3:5">
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="3:6">
       <c r="C37" t="s">
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="3:5">
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="3:6">
       <c r="C38" t="s">
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="3:5">
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="3:6">
       <c r="C39" t="s">
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="3:5">
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="3:6">
       <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="3:5">
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="3:6">
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="3:5">
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="3:6">
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C43">
       <formula1>statusChoices</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D43">
       <formula1>typeChoices</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="2400" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -951,7 +1110,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
         <v>10</v>
@@ -962,7 +1121,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L6" t="s">
         <v>10</v>
@@ -970,10 +1129,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
         <v>10</v>
@@ -984,7 +1143,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
         <v>10</v>
@@ -992,7 +1151,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
         <v>10</v>
@@ -1000,7 +1159,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L10" t="s">
         <v>10</v>
@@ -1008,7 +1167,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L11" t="s">
         <v>10</v>
@@ -1016,7 +1175,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L12" t="s">
         <v>10</v>
@@ -1024,7 +1183,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L13" t="s">
         <v>10</v>
@@ -1032,7 +1191,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L14" t="s">
         <v>10</v>

--- a/rotmic/static/uploadexample_chemicalcomponent.xlsx
+++ b/rotmic/static/uploadexample_chemicalcomponent.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -106,13 +106,16 @@
   </si>
   <si>
     <t>Projects</t>
+  </si>
+  <si>
+    <t>Authors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +147,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -186,7 +195,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -209,6 +218,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -225,14 +235,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1819275</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -241,8 +251,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="190500"/>
-          <a:ext cx="10515600" cy="485776"/>
+          <a:off x="0" y="190499"/>
+          <a:ext cx="11696700" cy="752475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -316,6 +326,47 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t> are required. Rows without any value in the first column will be ignored.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Authors: provide</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> one or more rotmic user names separated by comma.  Leave empty to register the user who is uploading the file as single author.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
         </a:p>
@@ -618,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -629,436 +680,478 @@
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="6" width="25.5703125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="64.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="7" width="25.5703125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="64.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="11" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="3" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
       <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
       <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
       <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
       <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
       <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
       <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
       <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="3:6">
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="3:7">
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
       <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="3:6">
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="3:7">
       <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
       <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="3:6">
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="3:7">
       <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
       <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="3:6">
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="3:7">
       <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
       <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="3:6">
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="3:7">
       <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
       <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="3:6">
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="3:7">
       <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
       <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="3:6">
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="3:7">
       <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
       <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="3:6">
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="3:7">
       <c r="C24" t="s">
         <v>7</v>
       </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
       <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="3:6">
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="3:7">
       <c r="C25" t="s">
         <v>7</v>
       </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
       <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="3:6">
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="3:7">
       <c r="C26" t="s">
         <v>7</v>
       </c>
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
       <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="3:6">
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="3:7">
       <c r="C27" t="s">
         <v>7</v>
       </c>
-      <c r="D27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
       <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="3:6">
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="3:7">
       <c r="C28" t="s">
         <v>7</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
       <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="3:6">
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="3:7">
       <c r="C29" t="s">
         <v>7</v>
       </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
       <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="3:6">
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="3:7">
       <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="D30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
       <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="3:6">
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="3:7">
       <c r="C31" t="s">
         <v>7</v>
       </c>
-      <c r="D31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
       <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="3:6">
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="3:7">
       <c r="C32" t="s">
         <v>7</v>
       </c>
-      <c r="D32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
       <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="3:6">
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="3:7">
       <c r="C33" t="s">
         <v>7</v>
       </c>
-      <c r="D33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
       <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="3:6">
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="3:7">
       <c r="C34" t="s">
         <v>7</v>
       </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
       <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="3:6">
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="3:7">
       <c r="C35" t="s">
         <v>7</v>
       </c>
-      <c r="D35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
       <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="3:6">
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="3:7">
       <c r="C36" t="s">
         <v>7</v>
       </c>
-      <c r="D36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
       <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="3:6">
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="3:7">
       <c r="C37" t="s">
         <v>7</v>
       </c>
-      <c r="D37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
       <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="3:6">
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="3:7">
       <c r="C38" t="s">
         <v>7</v>
       </c>
-      <c r="D38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" t="s">
+        <v>22</v>
+      </c>
       <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="3:6">
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="3:7">
       <c r="C39" t="s">
         <v>7</v>
       </c>
-      <c r="D39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
       <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="3:6">
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="3:7">
       <c r="C40" t="s">
         <v>7</v>
       </c>
-      <c r="D40" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
       <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="3:6">
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="3:7">
       <c r="C41" t="s">
         <v>7</v>
       </c>
-      <c r="D41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" t="s">
+        <v>22</v>
+      </c>
       <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="3:6">
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="3:7">
       <c r="C42" t="s">
         <v>7</v>
       </c>
-      <c r="D42" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" t="s">
+        <v>22</v>
+      </c>
       <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="3:6">
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="3:7">
       <c r="C43" t="s">
         <v>7</v>
       </c>
-      <c r="D43" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" t="s">
+        <v>22</v>
+      </c>
       <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="3:7">
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C44">
       <formula1>statusChoices</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E44">
       <formula1>typeChoices</formula1>
     </dataValidation>
   </dataValidations>
